--- a/GenericNotification.Tests/Files/ExcelTableTest.xlsx
+++ b/GenericNotification.Tests/Files/ExcelTableTest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\code\GenericNotification\GenericNotification.Tests\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E566B-77EC-453A-B3AE-A887CCCB6372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>test1@mail.ru</t>
+  </si>
+  <si>
+    <t>test2@mail.ru</t>
+  </si>
+  <si>
+    <t>test3@mail.ru</t>
+  </si>
+  <si>
+    <t>test4@mail.ru</t>
+  </si>
+  <si>
+    <t>test5@mail.ru</t>
+  </si>
+  <si>
+    <t>test6@mail.ru</t>
+  </si>
+  <si>
+    <t>test7@mail.ru</t>
+  </si>
+  <si>
+    <t>test8@mail.ru</t>
+  </si>
+  <si>
+    <t>test9@mail.ru</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +92,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +379,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{C05B406E-D621-4129-8382-852278DCAA00}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{F1BB5E9C-5EC0-4797-8748-B74E193C5E9F}"/>
+    <hyperlink ref="C1" r:id="rId3" xr:uid="{8BC743B0-98AB-4740-A5B9-EBC9BB332054}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{6890FF92-4EEA-4D42-AD62-3C4D473C09F8}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{8C5E04BF-B061-4682-8E04-C2F42519E811}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{BB2C8895-4D38-4D5C-BC58-B6AB680F4E6B}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{20154968-1BA6-47E9-8F89-0A4023FED70C}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{1A4C87D1-1B06-4CDB-887B-6211C0ED6BCC}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{3670EC35-88BF-40F0-86C9-34EDD43F69BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>